--- a/results/pvalue_OFFSIDES_rare_target_AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_rare_target_AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21.815</t>
+          <t>24.559</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>22.91</t>
+          <t>37.402</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.429</t>
+          <t>17.197</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.856</t>
+          <t>30.449</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.654</t>
+          <t>9.482</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
